--- a/data/France/France.xlsx
+++ b/data/France/France.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{F5DDA425-9C08-46BF-8D94-A8B4915CD699}" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{F16673DB-45E8-48DF-ADE5-67768FDAF38B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{F5DDA425-9C08-46BF-8D94-A8B4915CD699}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{7845DF3B-E26F-4D34-AAC6-78F7123E1833}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="367">
   <si>
     <t>name</t>
   </si>
@@ -239,9 +239,6 @@
     <t>https://fr.wikipedia.org/wiki/Blé_dur</t>
   </si>
   <si>
-    <t>https://fr.wikipedia.org/wiki/Blé_tendre</t>
-  </si>
-  <si>
     <t>https://fr.wikipedia.org/wiki/Triticale</t>
   </si>
   <si>
@@ -998,9 +995,6 @@
     <t>fig</t>
   </si>
   <si>
-    <t>wheat</t>
-  </si>
-  <si>
     <t>triticale</t>
   </si>
   <si>
@@ -1107,6 +1101,18 @@
   </si>
   <si>
     <t>chili-pepper</t>
+  </si>
+  <si>
+    <t>plum.jpg</t>
+  </si>
+  <si>
+    <t>bean.jpg</t>
+  </si>
+  <si>
+    <t>wheat_hard</t>
+  </si>
+  <si>
+    <t>wheat_soft</t>
   </si>
 </sst>
 </file>
@@ -1480,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022D00C6-C9B9-4297-85C6-A4ADC86377B4}">
-  <dimension ref="A1:F107"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{9C19130F-92DA-54E1-8132-DD66978CFA27}">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{9C19130F-92DA-54E1-8132-DD66978CFA27}">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1505,27 +1511,27 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -1534,18 +1540,18 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -1554,18 +1560,18 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1574,18 +1580,18 @@
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -1594,18 +1600,18 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -1614,18 +1620,18 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
@@ -1634,78 +1640,78 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
@@ -1714,58 +1720,58 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
@@ -1774,18 +1780,18 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
@@ -1794,58 +1800,58 @@
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>10</v>
@@ -1854,178 +1860,178 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B26" t="s">
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B27" t="s">
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
@@ -2034,18 +2040,18 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>9</v>
@@ -2054,218 +2060,218 @@
         <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B29" t="s">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
       </c>
       <c r="C33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
@@ -2274,18 +2280,18 @@
         <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -2294,18 +2300,18 @@
         <v>48</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -2314,298 +2320,298 @@
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s">
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B49" t="s">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B51" t="s">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
       </c>
       <c r="C52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B53" t="s">
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
       </c>
       <c r="C54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>145</v>
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="2">
         <v>6.7</v>
@@ -2614,378 +2620,378 @@
         <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
       <c r="C62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
       <c r="C63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>71</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
       </c>
       <c r="C64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
       </c>
       <c r="C67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>75</v>
       </c>
       <c r="F68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="F70" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="F73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B74" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="F74" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>258</v>
@@ -2994,121 +3000,121 @@
         <v>82</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
       <c r="C76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>259</v>
+        <v>185</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>85</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>179</v>
+        <v>260</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F80" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>88</v>
@@ -3119,13 +3125,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>261</v>
@@ -3134,18 +3140,18 @@
         <v>89</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>262</v>
@@ -3154,38 +3160,38 @@
         <v>90</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>344</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>263</v>
+        <v>10</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>91</v>
+        <v>189</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>210</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
         <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>10</v>
@@ -3199,19 +3205,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B86" t="s">
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F86" t="s">
         <v>212</v>
@@ -3219,19 +3225,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B87" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F87" t="s">
         <v>213</v>
@@ -3239,19 +3245,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>183</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F88" t="s">
         <v>214</v>
@@ -3259,16 +3265,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B89" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>194</v>
@@ -3277,18 +3283,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>146</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>181</v>
+        <v>145</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>195</v>
@@ -3297,18 +3303,18 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>146</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>10</v>
+        <v>177</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>196</v>
@@ -3317,18 +3323,18 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B92" t="s">
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>178</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>197</v>
@@ -3337,18 +3343,18 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B93" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>198</v>
@@ -3359,16 +3365,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>199</v>
@@ -3379,16 +3385,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
       <c r="C95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>200</v>
@@ -3397,17 +3403,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B96" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
-      </c>
-      <c r="D96" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>187</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -3417,18 +3423,18 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>188</v>
+        <v>145</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="E97" s="1" t="s">
         <v>202</v>
@@ -3437,18 +3443,18 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B98" t="s">
         <v>2</v>
       </c>
       <c r="C98" t="s">
-        <v>146</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>186</v>
+        <v>145</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>203</v>
@@ -3457,15 +3463,15 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="C99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>188</v>
@@ -3477,18 +3483,18 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100" t="s">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>189</v>
+        <v>10</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>205</v>
@@ -3497,18 +3503,18 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" t="s">
         <v>2</v>
       </c>
       <c r="C101" t="s">
-        <v>146</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>10</v>
+        <v>145</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>206</v>
@@ -3519,16 +3525,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>207</v>
@@ -3539,52 +3545,32 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="F103" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>363</v>
-      </c>
-      <c r="B104" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" t="s">
-        <v>146</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F104" t="s">
-        <v>265</v>
-      </c>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D106" s="2"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D107" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3651,46 +3637,45 @@
     <hyperlink ref="E62" r:id="rId61" xr:uid="{1B4ACC09-40A9-4746-AACC-E7DBAE4F79B0}"/>
     <hyperlink ref="E63" r:id="rId62" xr:uid="{6D068D16-61A9-45CE-A7FF-A010021DF1B5}"/>
     <hyperlink ref="E64" r:id="rId63" xr:uid="{E38898B9-41DC-4894-8D6F-9A556BD0AF74}"/>
-    <hyperlink ref="E65" r:id="rId64" xr:uid="{C68F4758-0F68-4F6D-8CEB-78F70B5A52A6}"/>
-    <hyperlink ref="E66" r:id="rId65" xr:uid="{3B828514-374B-492B-A65A-95EB629ACC99}"/>
-    <hyperlink ref="E67" r:id="rId66" xr:uid="{3198EAD3-752F-4945-B995-ACFB856AE7F3}"/>
-    <hyperlink ref="E68" r:id="rId67" xr:uid="{E76BC737-8C42-4511-B95F-7A9104797CCE}"/>
-    <hyperlink ref="E69" r:id="rId68" xr:uid="{91E12B56-8DBB-4072-A211-77C01BC58739}"/>
-    <hyperlink ref="E70" r:id="rId69" xr:uid="{44BD3BE9-5A71-449A-8988-A6AAF68C9F21}"/>
-    <hyperlink ref="E71" r:id="rId70" xr:uid="{82054733-ACCA-4FBF-81E1-6646E7D2187A}"/>
-    <hyperlink ref="E72" r:id="rId71" xr:uid="{73E4F66B-D5BC-482B-B33E-A2BACCE7C645}"/>
-    <hyperlink ref="E73" r:id="rId72" xr:uid="{DF342F9A-FA38-43AA-99D7-75A373F7418C}"/>
-    <hyperlink ref="E74" r:id="rId73" xr:uid="{58FA30C9-F7F4-4A25-99C0-78CD907B0F9C}"/>
-    <hyperlink ref="E75" r:id="rId74" xr:uid="{78B2B3FC-D9D2-4D06-9666-5E9AD287DBB3}"/>
-    <hyperlink ref="E76" r:id="rId75" xr:uid="{2D2856FF-0243-43FF-A7A3-6801D88E0B44}"/>
-    <hyperlink ref="E77" r:id="rId76" xr:uid="{B28B8CE9-A4DC-43C1-910E-53F34E735AA0}"/>
-    <hyperlink ref="E78" r:id="rId77" xr:uid="{DAB4794C-3666-409B-A9E2-9A5B2B8C3EDF}"/>
-    <hyperlink ref="E79" r:id="rId78" xr:uid="{4729F5B1-D15C-4DC3-9D5A-7C128DF40989}"/>
-    <hyperlink ref="E80" r:id="rId79" xr:uid="{78D782D6-7250-45D2-99AF-B22981EA25DE}"/>
-    <hyperlink ref="E81" r:id="rId80" xr:uid="{47E19316-1311-4356-ACA6-85EF0F9B416D}"/>
-    <hyperlink ref="E82" r:id="rId81" xr:uid="{E9E523EF-44E0-43AA-B540-97E4CDA2A8A5}"/>
-    <hyperlink ref="E83" r:id="rId82" xr:uid="{F88D6CB0-3828-46DA-A556-0B286A96F4EC}"/>
-    <hyperlink ref="E84" r:id="rId83" xr:uid="{95A71AED-9849-4FD8-8788-AFCEB9F20EEE}"/>
-    <hyperlink ref="E85" r:id="rId84" xr:uid="{6E939DB2-3191-42D6-BC13-C50D94D8EAC7}"/>
-    <hyperlink ref="E86" r:id="rId85" xr:uid="{A8BC27F5-16AF-4297-B28A-36F550D58880}"/>
-    <hyperlink ref="E87" r:id="rId86" xr:uid="{B847ACA0-80BD-495B-A022-34FFABB87C96}"/>
-    <hyperlink ref="E88" r:id="rId87" xr:uid="{0640211B-44FF-49FF-AFC8-69A336069E55}"/>
-    <hyperlink ref="E89" r:id="rId88" xr:uid="{7BFDE32C-9046-4C6F-B750-27B78C6454F7}"/>
-    <hyperlink ref="E90" r:id="rId89" xr:uid="{2541CC19-5CF1-4D96-8F10-CB374FD6201B}"/>
-    <hyperlink ref="E91" r:id="rId90" xr:uid="{06B65F1F-0939-479B-A219-A92160852584}"/>
-    <hyperlink ref="E92" r:id="rId91" xr:uid="{1ADA9F48-1001-4C7A-A6AE-26172C081F33}"/>
-    <hyperlink ref="E93" r:id="rId92" xr:uid="{E864FA32-1274-4711-8293-D3A83743CCBC}"/>
-    <hyperlink ref="E94" r:id="rId93" xr:uid="{CC03740E-B959-4D4C-9D49-4EFF0D3B0944}"/>
-    <hyperlink ref="E95" r:id="rId94" xr:uid="{7E38ADC0-80A9-4D52-B4F0-766C273E8C72}"/>
-    <hyperlink ref="E96" r:id="rId95" xr:uid="{001BB9D1-2CC2-4552-8211-AB6825C7AF35}"/>
-    <hyperlink ref="E97" r:id="rId96" xr:uid="{54C18A0B-0EDE-4306-9C35-2DD9DFBC015D}"/>
-    <hyperlink ref="E98" r:id="rId97" xr:uid="{32CBCD11-5C5F-4EDE-A974-10F17D43C967}"/>
-    <hyperlink ref="E99" r:id="rId98" xr:uid="{A88B870C-6363-477C-888B-94F058C5D091}"/>
-    <hyperlink ref="E100" r:id="rId99" xr:uid="{DCDA9C3C-D14C-4A41-B14A-6FAEE3EC90F4}"/>
-    <hyperlink ref="E101" r:id="rId100" xr:uid="{35FDE167-6C27-4E78-BA95-61D60DA18B0E}"/>
-    <hyperlink ref="E102" r:id="rId101" xr:uid="{B2548284-F65F-434B-9C4D-EEAE09C8478F}"/>
-    <hyperlink ref="E103" r:id="rId102" xr:uid="{C7E2FEB6-21C8-446D-9DDE-DC351F8FCAED}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{994C3DCE-D23C-4227-A86F-005955C59125}"/>
+    <hyperlink ref="E66" r:id="rId64" xr:uid="{C68F4758-0F68-4F6D-8CEB-78F70B5A52A6}"/>
+    <hyperlink ref="E67" r:id="rId65" xr:uid="{E76BC737-8C42-4511-B95F-7A9104797CCE}"/>
+    <hyperlink ref="E68" r:id="rId66" xr:uid="{91E12B56-8DBB-4072-A211-77C01BC58739}"/>
+    <hyperlink ref="E69" r:id="rId67" xr:uid="{44BD3BE9-5A71-449A-8988-A6AAF68C9F21}"/>
+    <hyperlink ref="E70" r:id="rId68" xr:uid="{82054733-ACCA-4FBF-81E1-6646E7D2187A}"/>
+    <hyperlink ref="E71" r:id="rId69" xr:uid="{73E4F66B-D5BC-482B-B33E-A2BACCE7C645}"/>
+    <hyperlink ref="E72" r:id="rId70" xr:uid="{DF342F9A-FA38-43AA-99D7-75A373F7418C}"/>
+    <hyperlink ref="E73" r:id="rId71" xr:uid="{58FA30C9-F7F4-4A25-99C0-78CD907B0F9C}"/>
+    <hyperlink ref="E74" r:id="rId72" xr:uid="{78B2B3FC-D9D2-4D06-9666-5E9AD287DBB3}"/>
+    <hyperlink ref="E75" r:id="rId73" xr:uid="{2D2856FF-0243-43FF-A7A3-6801D88E0B44}"/>
+    <hyperlink ref="E76" r:id="rId74" xr:uid="{B28B8CE9-A4DC-43C1-910E-53F34E735AA0}"/>
+    <hyperlink ref="E77" r:id="rId75" xr:uid="{DAB4794C-3666-409B-A9E2-9A5B2B8C3EDF}"/>
+    <hyperlink ref="E78" r:id="rId76" xr:uid="{4729F5B1-D15C-4DC3-9D5A-7C128DF40989}"/>
+    <hyperlink ref="E79" r:id="rId77" xr:uid="{78D782D6-7250-45D2-99AF-B22981EA25DE}"/>
+    <hyperlink ref="E80" r:id="rId78" xr:uid="{47E19316-1311-4356-ACA6-85EF0F9B416D}"/>
+    <hyperlink ref="E81" r:id="rId79" xr:uid="{E9E523EF-44E0-43AA-B540-97E4CDA2A8A5}"/>
+    <hyperlink ref="E82" r:id="rId80" xr:uid="{F88D6CB0-3828-46DA-A556-0B286A96F4EC}"/>
+    <hyperlink ref="E83" r:id="rId81" xr:uid="{95A71AED-9849-4FD8-8788-AFCEB9F20EEE}"/>
+    <hyperlink ref="E84" r:id="rId82" xr:uid="{6E939DB2-3191-42D6-BC13-C50D94D8EAC7}"/>
+    <hyperlink ref="E85" r:id="rId83" xr:uid="{A8BC27F5-16AF-4297-B28A-36F550D58880}"/>
+    <hyperlink ref="E86" r:id="rId84" xr:uid="{B847ACA0-80BD-495B-A022-34FFABB87C96}"/>
+    <hyperlink ref="E87" r:id="rId85" xr:uid="{0640211B-44FF-49FF-AFC8-69A336069E55}"/>
+    <hyperlink ref="E88" r:id="rId86" xr:uid="{7BFDE32C-9046-4C6F-B750-27B78C6454F7}"/>
+    <hyperlink ref="E89" r:id="rId87" xr:uid="{2541CC19-5CF1-4D96-8F10-CB374FD6201B}"/>
+    <hyperlink ref="E90" r:id="rId88" xr:uid="{06B65F1F-0939-479B-A219-A92160852584}"/>
+    <hyperlink ref="E91" r:id="rId89" xr:uid="{1ADA9F48-1001-4C7A-A6AE-26172C081F33}"/>
+    <hyperlink ref="E92" r:id="rId90" xr:uid="{E864FA32-1274-4711-8293-D3A83743CCBC}"/>
+    <hyperlink ref="E93" r:id="rId91" xr:uid="{CC03740E-B959-4D4C-9D49-4EFF0D3B0944}"/>
+    <hyperlink ref="E94" r:id="rId92" xr:uid="{7E38ADC0-80A9-4D52-B4F0-766C273E8C72}"/>
+    <hyperlink ref="E95" r:id="rId93" xr:uid="{001BB9D1-2CC2-4552-8211-AB6825C7AF35}"/>
+    <hyperlink ref="E96" r:id="rId94" xr:uid="{54C18A0B-0EDE-4306-9C35-2DD9DFBC015D}"/>
+    <hyperlink ref="E97" r:id="rId95" xr:uid="{32CBCD11-5C5F-4EDE-A974-10F17D43C967}"/>
+    <hyperlink ref="E98" r:id="rId96" xr:uid="{A88B870C-6363-477C-888B-94F058C5D091}"/>
+    <hyperlink ref="E99" r:id="rId97" xr:uid="{DCDA9C3C-D14C-4A41-B14A-6FAEE3EC90F4}"/>
+    <hyperlink ref="E100" r:id="rId98" xr:uid="{35FDE167-6C27-4E78-BA95-61D60DA18B0E}"/>
+    <hyperlink ref="E101" r:id="rId99" xr:uid="{B2548284-F65F-434B-9C4D-EEAE09C8478F}"/>
+    <hyperlink ref="E102" r:id="rId100" xr:uid="{C7E2FEB6-21C8-446D-9DDE-DC351F8FCAED}"/>
+    <hyperlink ref="E103" r:id="rId101" xr:uid="{994C3DCE-D23C-4227-A86F-005955C59125}"/>
+    <hyperlink ref="E65" r:id="rId102" xr:uid="{5E290C56-893E-4D89-BC01-EAD239A7318C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
